--- a/Output/Cuadros/1. OOSS/cuadro3.xlsx
+++ b/Output/Cuadros/1. OOSS/cuadro3.xlsx
@@ -1,21 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Cuadros\1. OOSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_034C9FC18F79A8D366075C52F37BD272EAC0E59C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5706BA3-172D-488B-8CC1-6DE6247EB549}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>Rama.Actividad.Económica</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Actividades  no  especiftcadas</t>
+  </si>
+  <si>
+    <t>Agricultura  y  pesca</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Electricidad,  gas  y  agua</t>
+  </si>
+  <si>
+    <t>Establecimientos  ftnancieros</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Transporte  y  comunicaciones</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +159,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,25 +190,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +293,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +345,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,165 +538,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AC10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rama.Actividad.Económica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Actividades  no  especiftcadas</t>
-        </is>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -592,11 +725,9 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agricultura  y  pesca</t>
-        </is>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1107</v>
@@ -680,11 +811,9 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Comercio</t>
-        </is>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1136</v>
@@ -768,11 +897,9 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>244</v>
@@ -856,11 +983,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Electricidad,  gas  y  agua</t>
-        </is>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -944,11 +1069,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Establecimientos  ftnancieros</t>
-        </is>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
       <c r="B7">
         <v>223</v>
@@ -1032,11 +1155,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Industria</t>
-        </is>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
       </c>
       <c r="B8">
         <v>2133</v>
@@ -1120,11 +1241,9 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
       </c>
       <c r="B9">
         <v>310</v>
@@ -1208,99 +1327,96 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Servicios</t>
-        </is>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
         <v>1252</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1361</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1258</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1213</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>1125</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>1087</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>1061</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1032</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>1342</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>1363</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>1484</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>1517</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>1885</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <v>1792</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>1967</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>1873</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
         <v>1722</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="2">
         <v>1865</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="2">
         <v>2272</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="2">
         <v>1740</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="2">
         <v>1816</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="2">
         <v>1842</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>1973</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="2">
         <v>2123</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="2">
         <v>2191</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="2">
         <v>2269</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="2">
         <v>2898</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
       </c>
       <c r="B11">
         <v>7707</v>
@@ -1384,11 +1500,9 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Transporte  y  comunicaciones</t>
-        </is>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1168</v>

--- a/Output/Cuadros/1. OOSS/cuadro3.xlsx
+++ b/Output/Cuadros/1. OOSS/cuadro3.xlsx
@@ -1,155 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Cuadros\1. OOSS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_034C9FC18F79A8D366075C52F37BD272EAC0E59C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5706BA3-172D-488B-8CC1-6DE6247EB549}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Rama.Actividad.Económica</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>Actividades  no  especiftcadas</t>
-  </si>
-  <si>
-    <t>Agricultura  y  pesca</t>
-  </si>
-  <si>
-    <t>Comercio</t>
-  </si>
-  <si>
-    <t>Construcción</t>
-  </si>
-  <si>
-    <t>Electricidad,  gas  y  agua</t>
-  </si>
-  <si>
-    <t>Establecimientos  ftnancieros</t>
-  </si>
-  <si>
-    <t>Industria</t>
-  </si>
-  <si>
-    <t>Minería</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Transporte  y  comunicaciones</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +25,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,36 +49,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -261,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,110 +350,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:AC10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rama.Actividad.Económica</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Actividades  no  especiftcadas</t>
+        </is>
       </c>
       <c r="B2">
         <v>42</v>
@@ -724,10 +596,15 @@
       <c r="AC2">
         <v>1105</v>
       </c>
+      <c r="AD2">
+        <v>1562</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>30</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Agricultura  y  pesca</t>
+        </is>
       </c>
       <c r="B3">
         <v>1107</v>
@@ -810,10 +687,15 @@
       <c r="AC3">
         <v>1303</v>
       </c>
+      <c r="AD3">
+        <v>1260</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Comercio</t>
+        </is>
       </c>
       <c r="B4">
         <v>1136</v>
@@ -896,10 +778,15 @@
       <c r="AC4">
         <v>2152</v>
       </c>
+      <c r="AD4">
+        <v>1960</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
       </c>
       <c r="B5">
         <v>244</v>
@@ -982,10 +869,15 @@
       <c r="AC5">
         <v>411</v>
       </c>
+      <c r="AD5">
+        <v>335</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Electricidad,  gas  y  agua</t>
+        </is>
       </c>
       <c r="B6">
         <v>92</v>
@@ -1068,10 +960,15 @@
       <c r="AC6">
         <v>223</v>
       </c>
+      <c r="AD6">
+        <v>214</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Establecimientos  ftnancieros</t>
+        </is>
       </c>
       <c r="B7">
         <v>223</v>
@@ -1154,10 +1051,15 @@
       <c r="AC7">
         <v>218</v>
       </c>
+      <c r="AD7">
+        <v>183</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>35</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
       </c>
       <c r="B8">
         <v>2133</v>
@@ -1240,10 +1142,15 @@
       <c r="AC8">
         <v>1433</v>
       </c>
+      <c r="AD8">
+        <v>1365</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>36</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Minería</t>
+        </is>
       </c>
       <c r="B9">
         <v>310</v>
@@ -1326,97 +1233,106 @@
       <c r="AC9">
         <v>307</v>
       </c>
+      <c r="AD9">
+        <v>298</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>1252</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1361</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>1258</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1213</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>1125</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>1087</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>1061</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>1032</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>1342</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>1363</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>1484</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>1517</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>1885</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>1792</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>1967</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>1873</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>1722</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>1865</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10">
         <v>2272</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>1740</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10">
         <v>1816</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10">
         <v>1842</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10">
         <v>1973</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10">
         <v>2123</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10">
         <v>2191</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10">
         <v>2269</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10">
         <v>2898</v>
       </c>
+      <c r="AD10">
+        <v>3004</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>38</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="B11">
         <v>7707</v>
@@ -1499,10 +1415,15 @@
       <c r="AC11">
         <v>11920</v>
       </c>
+      <c r="AD11">
+        <v>11926</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Transporte  y  comunicaciones</t>
+        </is>
       </c>
       <c r="B12">
         <v>1168</v>
@@ -1584,6 +1505,9 @@
       </c>
       <c r="AC12">
         <v>1870</v>
+      </c>
+      <c r="AD12">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>
